--- a/thread_classification/truncated_powerlaw_fits/truncated_power_law_fit_params.xlsx
+++ b/thread_classification/truncated_powerlaw_fits/truncated_power_law_fit_params.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snuzz\Documents\PhD\datasets\reddit_analyses\reddit_analyses\thread_classification\truncated_powerlaw_fits\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7008F0F4-2313-4881-B06E-6A4B41C44DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="books" sheetId="1" r:id="rId1"/>
-    <sheet name="conspiracy" sheetId="2" r:id="rId2"/>
-    <sheet name="crypto" sheetId="3" r:id="rId3"/>
-    <sheet name="politics" sheetId="4" r:id="rId4"/>
+    <sheet name="overall" sheetId="5" r:id="rId1"/>
+    <sheet name="books" sheetId="1" r:id="rId2"/>
+    <sheet name="conspiracy" sheetId="2" r:id="rId3"/>
+    <sheet name="crypto" sheetId="3" r:id="rId4"/>
+    <sheet name="politics" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="32">
   <si>
     <t>positive</t>
   </si>
@@ -95,13 +102,31 @@
   </si>
   <si>
     <t>lambda</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>subreddit</t>
+  </si>
+  <si>
+    <t>thread type</t>
+  </si>
+  <si>
+    <t>conspiracy</t>
+  </si>
+  <si>
+    <t>crypto</t>
+  </si>
+  <si>
+    <t>politics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,13 +174,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -164,13 +206,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +258,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -242,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,9 +327,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,352 +503,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8D3311-E563-4BBA-A1DC-DD6EB5B22168}">
+  <dimension ref="A2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>1.6136472581346299</v>
+      </c>
+      <c r="E3">
+        <v>6.8643879194443629E-4</v>
+      </c>
+      <c r="F3">
+        <v>5.7064453605077448E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>2.257146174030241</v>
+      </c>
+      <c r="E4">
+        <v>1.2200910292069259E-10</v>
+      </c>
+      <c r="F4">
+        <v>5.400547030050018E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1.4963747825385201</v>
+      </c>
+      <c r="E5">
+        <v>2.3350006994338771E-4</v>
+      </c>
+      <c r="F5">
+        <v>4.5575387180329052E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="E2">
+      <c r="C6">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1.61364725813463</v>
+      <c r="D6">
+        <v>1.687351760974531</v>
+      </c>
+      <c r="E6">
+        <v>3.6601274830772539E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.1036483987604162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2.257146174030241</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>1.49637478253852</v>
+        <v>1.828364655683359</v>
       </c>
       <c r="E7">
-        <v>1.687351760974531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>0.0006864387919444363</v>
+        <v>7.3068429035419002E-4</v>
+      </c>
+      <c r="F7">
+        <v>2.4419069566684711E-2</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>1.220091029206926E-10</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>0.0002335000699433877</v>
+        <v>1.98757334562551</v>
       </c>
       <c r="E8">
-        <v>0.0003660127483077254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
+        <v>4.5541457075809678E-4</v>
+      </c>
+      <c r="F8">
+        <v>3.5165705910955247E-2</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>1.7223035447995341</v>
+      </c>
+      <c r="E9">
+        <v>7.4857326330419896E-4</v>
+      </c>
+      <c r="F9">
+        <v>2.6026613478027649E-2</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1.722363139815928</v>
+      </c>
+      <c r="E10">
+        <v>6.1760286617205268E-4</v>
+      </c>
+      <c r="F10">
+        <v>3.9180223840454942E-2</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>1.927944568905162</v>
+      </c>
+      <c r="E11">
+        <v>4.8102689493293021E-5</v>
+      </c>
+      <c r="F11">
+        <v>2.29959964175297E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>2.0411167342598322</v>
+      </c>
+      <c r="E12">
+        <v>2.406797082838202E-4</v>
+      </c>
+      <c r="F12">
+        <v>3.2893296540499661E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>1.887684892351547</v>
+      </c>
+      <c r="E13">
+        <v>8.2916548148776023E-4</v>
+      </c>
+      <c r="F13">
+        <v>1.898197270053803E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>1.941825163086963</v>
+      </c>
+      <c r="E14">
+        <v>1.7029224143421959E-3</v>
+      </c>
+      <c r="F14">
+        <v>4.8495158105367697E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>1.61364725813463</v>
-      </c>
-      <c r="C11">
-        <v>2.257146174030241</v>
-      </c>
-      <c r="D11">
-        <v>1.49637478253852</v>
-      </c>
-      <c r="E11">
-        <v>1.687351760974531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0.0006864387919444363</v>
-      </c>
-      <c r="C12">
-        <v>1.220091029206926E-10</v>
-      </c>
-      <c r="D12">
-        <v>0.0002335000699433877</v>
-      </c>
-      <c r="E12">
-        <v>0.0003660127483077254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>-1371.395854204227</v>
-      </c>
-      <c r="C14">
-        <v>-269.2626952498805</v>
-      </c>
-      <c r="D14">
-        <v>-880.0005204780367</v>
-      </c>
-      <c r="E14">
-        <v>-309.4747012143864</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0.03123229455636023</v>
-      </c>
-      <c r="C15">
-        <v>0.03749807564902141</v>
-      </c>
       <c r="D15">
-        <v>0.04557538718032905</v>
+        <v>1.6796250205130361</v>
       </c>
       <c r="E15">
-        <v>0.05128710634784363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>0.05706445360507745</v>
+        <v>1.317150352129679E-4</v>
+      </c>
+      <c r="F15">
+        <v>3.0164236397316579E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0.05400547030050018</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>0.04441509970730811</v>
+        <v>1.923154260089702</v>
       </c>
       <c r="E16">
-        <v>0.1036483987604162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0.9973961839759207</v>
+        <v>1.643873821146255E-4</v>
+      </c>
+      <c r="F16">
+        <v>2.143533287164234E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0.9951972113541705</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>0.9964215343868161</v>
+        <v>1.8193003625065951</v>
       </c>
       <c r="E17">
-        <v>0.9929919469521051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0.08829674816143768</v>
+        <v>1.076811277168916E-4</v>
+      </c>
+      <c r="F17">
+        <v>2.9332635291963172E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>0.09150354594952159</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>0.08999048688763717</v>
+        <v>1.9068359613132071</v>
       </c>
       <c r="E18">
-        <v>0.1549355051082598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0.05706445360507745</v>
-      </c>
-      <c r="C19">
-        <v>0.05400547030050018</v>
-      </c>
-      <c r="D19">
-        <v>0.04557538718032905</v>
-      </c>
-      <c r="E19">
-        <v>0.1036483987604162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>0.3116863589888451</v>
-      </c>
-      <c r="C20">
-        <v>0.2898863335692835</v>
-      </c>
-      <c r="D20">
-        <v>0.3173821241055564</v>
-      </c>
-      <c r="E20">
-        <v>0.3438901582923736</v>
+        <v>1.20707512383264E-4</v>
+      </c>
+      <c r="F18">
+        <v>3.1624264253469432E-2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -810,29 +889,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,7 +945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,41 +962,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.828364655683359</v>
+        <v>1.6136472581346299</v>
       </c>
       <c r="C7">
-        <v>1.98757334562551</v>
+        <v>2.257146174030241</v>
       </c>
       <c r="D7">
-        <v>1.722303544799534</v>
+        <v>1.4963747825385201</v>
       </c>
       <c r="E7">
-        <v>1.722363139815928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.687351760974531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.00073068429035419</v>
+        <v>6.8643879194443629E-4</v>
       </c>
       <c r="C8">
-        <v>0.0004554145707580968</v>
+        <v>1.2200910292069259E-10</v>
       </c>
       <c r="D8">
-        <v>0.000748573263304199</v>
+        <v>2.3350006994338771E-4</v>
       </c>
       <c r="E8">
-        <v>0.0006176028661720527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3.6601274830772539E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -934,7 +1013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -951,41 +1030,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.828364655683359</v>
+        <v>1.6136472581346299</v>
       </c>
       <c r="C11">
-        <v>1.98757334562551</v>
+        <v>2.257146174030241</v>
       </c>
       <c r="D11">
-        <v>1.722303544799534</v>
+        <v>1.4963747825385201</v>
       </c>
       <c r="E11">
-        <v>1.722363139815928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1.687351760974531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.00073068429035419</v>
+        <v>6.8643879194443629E-4</v>
       </c>
       <c r="C12">
-        <v>0.0004554145707580968</v>
+        <v>1.2200910292069259E-10</v>
       </c>
       <c r="D12">
-        <v>0.000748573263304199</v>
+        <v>2.3350006994338771E-4</v>
       </c>
       <c r="E12">
-        <v>0.0006176028661720527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>3.6601274830772539E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1002,123 +1081,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-4281.843744909929</v>
+        <v>-1371.3958542042269</v>
       </c>
       <c r="C14">
-        <v>-2752.610301054893</v>
+        <v>-269.26269524988049</v>
       </c>
       <c r="D14">
-        <v>-5520.763736733525</v>
+        <v>-880.00052047803672</v>
       </c>
       <c r="E14">
-        <v>-2416.152668749726</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-309.47470121438641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.01635336317910074</v>
+        <v>3.1232294556360229E-2</v>
       </c>
       <c r="C15">
-        <v>0.01096524054571202</v>
+        <v>3.7498075649021412E-2</v>
       </c>
       <c r="D15">
-        <v>0.01691663882195205</v>
+        <v>4.5575387180329052E-2</v>
       </c>
       <c r="E15">
-        <v>0.02605762832710778</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>5.1287106347843628E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.02441906956668471</v>
+        <v>5.7064453605077448E-2</v>
       </c>
       <c r="C16">
-        <v>0.03516570591095525</v>
+        <v>5.400547030050018E-2</v>
       </c>
       <c r="D16">
-        <v>0.02602661347802765</v>
+        <v>4.4415099707308107E-2</v>
       </c>
       <c r="E16">
-        <v>0.03918022384045494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.1036483987604162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>1.000421527133466</v>
+        <v>0.99739618397592067</v>
       </c>
       <c r="C17">
-        <v>0.9977242711715342</v>
+        <v>0.9951972113541705</v>
       </c>
       <c r="D17">
-        <v>1.000959819243974</v>
+        <v>0.99642153438681613</v>
       </c>
       <c r="E17">
-        <v>0.9969185769397723</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.99299194695210513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.04077243274578546</v>
+        <v>8.8296748161437677E-2</v>
       </c>
       <c r="C18">
-        <v>0.04613094645666727</v>
+        <v>9.1503545949521592E-2</v>
       </c>
       <c r="D18">
-        <v>0.0429432522999797</v>
+        <v>8.9990486887637167E-2</v>
       </c>
       <c r="E18">
-        <v>0.06523785216756273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.15493550510825979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.02441906956668471</v>
+        <v>5.7064453605077448E-2</v>
       </c>
       <c r="C19">
-        <v>0.03516570591095525</v>
+        <v>5.400547030050018E-2</v>
       </c>
       <c r="D19">
-        <v>0.02602661347802765</v>
+        <v>4.5575387180329052E-2</v>
       </c>
       <c r="E19">
-        <v>0.03918022384045494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.1036483987604162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.1791862840146639</v>
+        <v>0.31168635898884511</v>
       </c>
       <c r="C20">
-        <v>0.1048720309239371</v>
+        <v>0.28988633356928351</v>
       </c>
       <c r="D20">
-        <v>0.350932841991187</v>
+        <v>0.31738212410555638</v>
       </c>
       <c r="E20">
-        <v>0.427209207608559</v>
+        <v>0.34389015829237363</v>
       </c>
     </row>
   </sheetData>
@@ -1127,14 +1206,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" activeCellId="2" sqref="A1:E2 A11:E12 A19:E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,29 +1229,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1187,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1221,41 +1302,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.927944568905162</v>
+        <v>1.828364655683359</v>
       </c>
       <c r="C7">
-        <v>2.041116734259832</v>
+        <v>1.98757334562551</v>
       </c>
       <c r="D7">
-        <v>1.887684892351547</v>
+        <v>1.7223035447995341</v>
       </c>
       <c r="E7">
-        <v>1.941825163086963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.722363139815928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>4.810268949329302E-05</v>
+        <v>7.3068429035419002E-4</v>
       </c>
       <c r="C8">
-        <v>0.0002406797082838202</v>
+        <v>4.5541457075809678E-4</v>
       </c>
       <c r="D8">
-        <v>0.0008291654814877602</v>
+        <v>7.4857326330419896E-4</v>
       </c>
       <c r="E8">
-        <v>0.001702922414342196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>6.1760286617205268E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1289,41 +1370,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.927944568905162</v>
+        <v>1.828364655683359</v>
       </c>
       <c r="C11">
-        <v>2.041116734259832</v>
+        <v>1.98757334562551</v>
       </c>
       <c r="D11">
-        <v>1.887684892351547</v>
+        <v>1.7223035447995341</v>
       </c>
       <c r="E11">
-        <v>1.941825163086963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1.722363139815928</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>4.810268949329302E-05</v>
+        <v>7.3068429035419002E-4</v>
       </c>
       <c r="C12">
-        <v>0.0002406797082838202</v>
+        <v>4.5541457075809678E-4</v>
       </c>
       <c r="D12">
-        <v>0.0008291654814877602</v>
+        <v>7.4857326330419896E-4</v>
       </c>
       <c r="E12">
-        <v>0.001702922414342196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>6.1760286617205268E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1340,123 +1421,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-4028.56023824403</v>
+        <v>-4281.8437449099292</v>
       </c>
       <c r="C14">
-        <v>-1579.801151347023</v>
+        <v>-2752.6103010548932</v>
       </c>
       <c r="D14">
-        <v>-3806.262113794559</v>
+        <v>-5520.7637367335246</v>
       </c>
       <c r="E14">
-        <v>-1206.844144726537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-2416.1526687497262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.0229959964175297</v>
+        <v>1.635336317910074E-2</v>
       </c>
       <c r="C15">
-        <v>0.02635922845390781</v>
+        <v>1.096524054571202E-2</v>
       </c>
       <c r="D15">
-        <v>0.01197439097703767</v>
+        <v>1.6916638821952049E-2</v>
       </c>
       <c r="E15">
-        <v>0.02073506308191997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>2.6057628327107781E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.02017946950593386</v>
+        <v>2.4419069566684711E-2</v>
       </c>
       <c r="C16">
-        <v>0.03289329654049966</v>
+        <v>3.5165705910955247E-2</v>
       </c>
       <c r="D16">
-        <v>0.01898197270053803</v>
+        <v>2.6026613478027649E-2</v>
       </c>
       <c r="E16">
-        <v>0.0484951581053677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>3.9180223840454942E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.9944256516008574</v>
+        <v>1.000421527133466</v>
       </c>
       <c r="C17">
-        <v>0.9985890324478095</v>
+        <v>0.99772427117153417</v>
       </c>
       <c r="D17">
-        <v>0.9999256097796014</v>
+        <v>1.0009598192439739</v>
       </c>
       <c r="E17">
-        <v>0.9978054132721718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.99691857693977226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.04317546592346355</v>
+        <v>4.0772432745785459E-2</v>
       </c>
       <c r="C18">
-        <v>0.05925252499440747</v>
+        <v>4.6130946456667273E-2</v>
       </c>
       <c r="D18">
-        <v>0.0309563636775757</v>
+        <v>4.2943252299979702E-2</v>
       </c>
       <c r="E18">
-        <v>0.06923022118728767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>6.5237852167562727E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.0229959964175297</v>
+        <v>2.4419069566684711E-2</v>
       </c>
       <c r="C19">
-        <v>0.03289329654049966</v>
+        <v>3.5165705910955247E-2</v>
       </c>
       <c r="D19">
-        <v>0.01898197270053803</v>
+        <v>2.6026613478027649E-2</v>
       </c>
       <c r="E19">
-        <v>0.0484951581053677</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>3.9180223840454942E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.5583736367022017</v>
+        <v>0.17918628401466391</v>
       </c>
       <c r="C20">
-        <v>0.2445708381858744</v>
+        <v>0.1048720309239371</v>
       </c>
       <c r="D20">
-        <v>0.06768489934642694</v>
+        <v>0.35093284199118702</v>
       </c>
       <c r="E20">
-        <v>0.2389686407097153</v>
+        <v>0.42720920760855902</v>
       </c>
     </row>
   </sheetData>
@@ -1465,14 +1546,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" activeCellId="2" sqref="B2:E2 B11:E12 B19:E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,11 +1569,351 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1.927944568905162</v>
+      </c>
+      <c r="C7">
+        <v>2.0411167342598322</v>
+      </c>
+      <c r="D7">
+        <v>1.887684892351547</v>
+      </c>
+      <c r="E7">
+        <v>1.941825163086963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4.8102689493293021E-5</v>
+      </c>
+      <c r="C8">
+        <v>2.406797082838202E-4</v>
+      </c>
+      <c r="D8">
+        <v>8.2916548148776023E-4</v>
+      </c>
+      <c r="E8">
+        <v>1.7029224143421959E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1.927944568905162</v>
+      </c>
+      <c r="C11">
+        <v>2.0411167342598322</v>
+      </c>
+      <c r="D11">
+        <v>1.887684892351547</v>
+      </c>
+      <c r="E11">
+        <v>1.941825163086963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>4.8102689493293021E-5</v>
+      </c>
+      <c r="C12">
+        <v>2.406797082838202E-4</v>
+      </c>
+      <c r="D12">
+        <v>8.2916548148776023E-4</v>
+      </c>
+      <c r="E12">
+        <v>1.7029224143421959E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>-4028.5602382440302</v>
+      </c>
+      <c r="C14">
+        <v>-1579.8011513470231</v>
+      </c>
+      <c r="D14">
+        <v>-3806.2621137945589</v>
+      </c>
+      <c r="E14">
+        <v>-1206.844144726537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2.29959964175297E-2</v>
+      </c>
+      <c r="C15">
+        <v>2.6359228453907809E-2</v>
+      </c>
+      <c r="D15">
+        <v>1.1974390977037669E-2</v>
+      </c>
+      <c r="E15">
+        <v>2.0735063081919969E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>2.0179469505933859E-2</v>
+      </c>
+      <c r="C16">
+        <v>3.2893296540499661E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.898197270053803E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.8495158105367697E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0.99442565160085739</v>
+      </c>
+      <c r="C17">
+        <v>0.9985890324478095</v>
+      </c>
+      <c r="D17">
+        <v>0.99992560977960143</v>
+      </c>
+      <c r="E17">
+        <v>0.99780541327217176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>4.3175465923463552E-2</v>
+      </c>
+      <c r="C18">
+        <v>5.9252524994407467E-2</v>
+      </c>
+      <c r="D18">
+        <v>3.0956363677575701E-2</v>
+      </c>
+      <c r="E18">
+        <v>6.9230221187287666E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>2.29959964175297E-2</v>
+      </c>
+      <c r="C19">
+        <v>3.2893296540499661E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.898197270053803E-2</v>
+      </c>
+      <c r="E19">
+        <v>4.8495158105367697E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0.55837363670220175</v>
+      </c>
+      <c r="C20">
+        <v>0.24457083818587441</v>
+      </c>
+      <c r="D20">
+        <v>6.7684899346426936E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.2389686407097153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" activeCellId="3" sqref="B2:E2 B11:E11 B12:E12 B19:E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>25</v>
       </c>
       <c r="C2">
@@ -1503,12 +1926,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1559,41 +1982,41 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.679625020513036</v>
+        <v>1.6796250205130361</v>
       </c>
       <c r="C7">
         <v>1.923154260089702</v>
       </c>
       <c r="D7">
-        <v>1.819300362506595</v>
+        <v>1.8193003625065951</v>
       </c>
       <c r="E7">
-        <v>1.906835961313207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>1.9068359613132071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.0001317150352129679</v>
+        <v>1.317150352129679E-4</v>
       </c>
       <c r="C8">
-        <v>0.0001643873821146255</v>
+        <v>1.643873821146255E-4</v>
       </c>
       <c r="D8">
-        <v>0.0001076811277168916</v>
+        <v>1.076811277168916E-4</v>
       </c>
       <c r="E8">
-        <v>0.000120707512383264</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>1.20707512383264E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1610,7 +2033,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1627,41 +2050,41 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B11">
-        <v>1.679625020513036</v>
+        <v>1.6796250205130361</v>
       </c>
       <c r="C11">
         <v>1.923154260089702</v>
       </c>
       <c r="D11">
-        <v>1.819300362506595</v>
+        <v>1.8193003625065951</v>
       </c>
       <c r="E11">
-        <v>1.906835961313207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>1.9068359613132071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.0001317150352129679</v>
+        <v>1.317150352129679E-4</v>
       </c>
       <c r="C12">
-        <v>0.0001643873821146255</v>
+        <v>1.643873821146255E-4</v>
       </c>
       <c r="D12">
-        <v>0.0001076811277168916</v>
+        <v>1.076811277168916E-4</v>
       </c>
       <c r="E12">
-        <v>0.000120707512383264</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1.20707512383264E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1678,123 +2101,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-30177.817025513</v>
+        <v>-30177.817025512999</v>
       </c>
       <c r="C14">
-        <v>-13159.24049354432</v>
+        <v>-13159.240493544319</v>
       </c>
       <c r="D14">
-        <v>-36092.280759518</v>
+        <v>-36092.280759517998</v>
       </c>
       <c r="E14">
-        <v>-9986.304681207406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-9986.3046812074062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.01235991921520418</v>
+        <v>1.235991921520418E-2</v>
       </c>
       <c r="C15">
-        <v>0.01090297596934264</v>
+        <v>1.090297596934264E-2</v>
       </c>
       <c r="D15">
-        <v>0.0165684993336721</v>
+        <v>1.6568499333672101E-2</v>
       </c>
       <c r="E15">
-        <v>0.009229606358647044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>9.2296063586470439E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.03016423639731658</v>
+        <v>3.0164236397316579E-2</v>
       </c>
       <c r="C16">
-        <v>0.02143533287164234</v>
+        <v>2.143533287164234E-2</v>
       </c>
       <c r="D16">
-        <v>0.02933263529196317</v>
+        <v>2.9332635291963172E-2</v>
       </c>
       <c r="E16">
-        <v>0.03162426425346943</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>3.1624264253469432E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17">
-        <v>1.002783804561035</v>
+        <v>1.0027838045610351</v>
       </c>
       <c r="C17">
         <v>1.00040668021418</v>
       </c>
       <c r="D17">
-        <v>1.004055475897289</v>
+        <v>1.0040554758972891</v>
       </c>
       <c r="E17">
         <v>0.9985384800442173</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.04252415561252076</v>
+        <v>4.2524155612520757E-2</v>
       </c>
       <c r="C18">
-        <v>0.03233830884098499</v>
+        <v>3.2338308840984993E-2</v>
       </c>
       <c r="D18">
-        <v>0.04590113462563528</v>
+        <v>4.5901134625635283E-2</v>
       </c>
       <c r="E18">
-        <v>0.04085387061211647</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>4.0853870612116469E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.03016423639731658</v>
+        <v>3.0164236397316579E-2</v>
       </c>
       <c r="C19">
-        <v>0.02143533287164234</v>
+        <v>2.143533287164234E-2</v>
       </c>
       <c r="D19">
-        <v>0.02933263529196317</v>
+        <v>2.9332635291963172E-2</v>
       </c>
       <c r="E19">
-        <v>0.03162426425346943</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>3.1624264253469432E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.7341628119055005</v>
+        <v>0.73416281190550048</v>
       </c>
       <c r="C20">
-        <v>0.24736362930029</v>
+        <v>0.24736362930028999</v>
       </c>
       <c r="D20">
-        <v>1.433249542662104</v>
+        <v>1.4332495426621039</v>
       </c>
       <c r="E20">
-        <v>0.3609698937752158</v>
+        <v>0.36096989377521582</v>
       </c>
     </row>
   </sheetData>
